--- a/data/marum_050320_20200305-105843/Ratios.xlsx
+++ b/data/marum_050320_20200305-105843/Ratios.xlsx
@@ -522,64 +522,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>-2.548206519746188</v>
+        <v>-2.847275287834461</v>
       </c>
       <c r="C2">
         <v>0.001172148628488765</v>
       </c>
       <c r="D2">
-        <v>0.009833917392275579</v>
+        <v>0.009872351621575147</v>
       </c>
       <c r="E2">
-        <v>0.659436056784224</v>
+        <v>0.6568687944351542</v>
       </c>
       <c r="F2">
-        <v>0.007125977915078028</v>
+        <v>0.007125819471520591</v>
       </c>
       <c r="G2">
-        <v>0.006135087733074284</v>
+        <v>0.006135224147577839</v>
       </c>
       <c r="H2">
-        <v>3.014074887328851</v>
+        <v>3.014038932611973</v>
       </c>
       <c r="I2">
-        <v>0.00857057018150382</v>
+        <v>0.00857067242053631</v>
       </c>
       <c r="J2">
-        <v>2.31063043513276</v>
+        <v>2.302892357720822</v>
       </c>
       <c r="K2">
-        <v>0.5911935489284801</v>
+        <v>0.5931800514376875</v>
       </c>
       <c r="L2">
-        <v>0.007548486385222375</v>
+        <v>0.007546223101383578</v>
       </c>
       <c r="M2">
-        <v>0.1175143135889271</v>
+        <v>0.1175495588027513</v>
       </c>
       <c r="N2">
-        <v>5.474638554421837E-05</v>
+        <v>5.472997078193209E-05</v>
       </c>
       <c r="O2">
-        <v>0.1175143135889273</v>
+        <v>0.1175495588027515</v>
       </c>
       <c r="P2">
-        <v>1.455117259605057</v>
+        <v>1.456346495761976</v>
       </c>
       <c r="Q2">
-        <v>0.3152663680722441</v>
+        <v>0.3150002660011896</v>
       </c>
       <c r="R2">
-        <v>0.1956675541886584</v>
+        <v>0.1961588706758454</v>
       </c>
       <c r="S2">
-        <v>0.4639372491747522</v>
+        <v>0.462775231781634</v>
       </c>
       <c r="T2">
-        <v>0.2852745428320785</v>
+        <v>0.2854375519436846</v>
       </c>
       <c r="U2">
-        <v>0.2641197422858518</v>
+        <v>0.263968907456116</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -587,64 +587,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>133.9198121543384</v>
+        <v>134.3404985354573</v>
       </c>
       <c r="C3">
         <v>0.0007675360008561563</v>
       </c>
       <c r="D3">
-        <v>0.009946661966893739</v>
+        <v>0.009946598391892306</v>
       </c>
       <c r="E3">
-        <v>0.1758578672316473</v>
+        <v>0.1758589912505049</v>
       </c>
       <c r="F3">
-        <v>0.007126041939328044</v>
+        <v>0.007125806012285446</v>
       </c>
       <c r="G3">
-        <v>0.003410403756560649</v>
+        <v>0.003410516671011444</v>
       </c>
       <c r="H3">
-        <v>2.268377389837333</v>
+        <v>2.268389111465859</v>
       </c>
       <c r="I3">
-        <v>0.004012347792787073</v>
+        <v>0.004012327059461336</v>
       </c>
       <c r="J3">
-        <v>1.959738428486635</v>
+        <v>1.958180449547295</v>
       </c>
       <c r="K3">
-        <v>0.1868591901228501</v>
+        <v>0.1870078601205006</v>
       </c>
       <c r="L3">
-        <v>0.008581245048561215</v>
+        <v>0.008584428706599713</v>
       </c>
       <c r="M3">
-        <v>0.06768873712488627</v>
+        <v>0.06766363378959994</v>
       </c>
       <c r="N3">
-        <v>6.22366029297816E-05</v>
+        <v>6.225969282642069E-05</v>
       </c>
       <c r="O3">
-        <v>0.06768873712488645</v>
+        <v>0.06766363378960014</v>
       </c>
       <c r="P3">
-        <v>0.1773004255231388</v>
+        <v>0.1775955051162501</v>
       </c>
       <c r="Q3">
-        <v>0.2851290997953635</v>
+        <v>0.2846553503122516</v>
       </c>
       <c r="R3">
-        <v>0.616919328357692</v>
+        <v>0.6158740214779815</v>
       </c>
       <c r="S3">
-        <v>0.4314998119612387</v>
+        <v>0.4322321853140788</v>
       </c>
       <c r="T3">
-        <v>0.1093973546756762</v>
+        <v>0.1094321149397285</v>
       </c>
       <c r="U3">
-        <v>0.3339448989473662</v>
+        <v>0.3338388239357233</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -652,64 +652,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>-2.642603788726161</v>
+        <v>-3.130442742450668</v>
       </c>
       <c r="C4">
         <v>0.001259794829689876</v>
       </c>
       <c r="D4">
-        <v>0.009823026842259405</v>
+        <v>0.009840315242341642</v>
       </c>
       <c r="E4">
-        <v>0.7149171608217345</v>
+        <v>0.7136611264775542</v>
       </c>
       <c r="F4">
-        <v>0.007125579570244791</v>
+        <v>0.007125478333713558</v>
       </c>
       <c r="G4">
-        <v>0.004992135612242576</v>
+        <v>0.004992206538918536</v>
       </c>
       <c r="H4">
-        <v>3.013587437015097</v>
+        <v>3.013561443332548</v>
       </c>
       <c r="I4">
-        <v>0.008943425743387743</v>
+        <v>0.008943502885524729</v>
       </c>
       <c r="J4">
-        <v>2.305158219246228</v>
+        <v>2.312209504241944</v>
       </c>
       <c r="K4">
-        <v>0.6969891272282482</v>
+        <v>0.6948635979602535</v>
       </c>
       <c r="L4">
-        <v>0.007547772008342854</v>
+        <v>0.007544080155037823</v>
       </c>
       <c r="M4">
-        <v>0.1263132789184239</v>
+        <v>0.1263750929615757</v>
       </c>
       <c r="N4">
-        <v>5.474120443239354E-05</v>
+        <v>5.471442878306526E-05</v>
       </c>
       <c r="O4">
-        <v>0.1263132789184238</v>
+        <v>0.1263750929615757</v>
       </c>
       <c r="P4">
-        <v>1.453911092621377</v>
+        <v>1.453743552193277</v>
       </c>
       <c r="Q4">
-        <v>0.2867762701671496</v>
+        <v>0.2868093204386368</v>
       </c>
       <c r="R4">
-        <v>0.1962198518593049</v>
+        <v>0.1955478871031682</v>
       </c>
       <c r="S4">
-        <v>0.4131507495694693</v>
+        <v>0.4145704669941616</v>
       </c>
       <c r="T4">
-        <v>0.2844758307624489</v>
+        <v>0.2844345867891541</v>
       </c>
       <c r="U4">
-        <v>0.2635288108403079</v>
+        <v>0.2635670234056622</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -717,64 +717,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>138.315618600372</v>
+        <v>138.2951588927177</v>
       </c>
       <c r="C5">
-        <v>0.0006116454282022694</v>
+        <v>0.0006116454282022695</v>
       </c>
       <c r="D5">
-        <v>0.01000298079775451</v>
+        <v>0.01000732465398708</v>
       </c>
       <c r="E5">
-        <v>0.2124114414057892</v>
+        <v>0.2123192404634272</v>
       </c>
       <c r="F5">
-        <v>0.007125114713453238</v>
+        <v>0.007125016435683732</v>
       </c>
       <c r="G5">
-        <v>0.002629727939912365</v>
+        <v>0.002629764212642213</v>
       </c>
       <c r="H5">
-        <v>2.053351219957208</v>
+        <v>2.053355915857855</v>
       </c>
       <c r="I5">
-        <v>0.004011637348091131</v>
+        <v>0.004011628173719425</v>
       </c>
       <c r="J5">
-        <v>1.767544758143089</v>
+        <v>1.767159888037883</v>
       </c>
       <c r="K5">
-        <v>0.215145385203765</v>
+        <v>0.2151922417602082</v>
       </c>
       <c r="L5">
-        <v>0.008614511503468456</v>
+        <v>0.00861435666909382</v>
       </c>
       <c r="M5">
-        <v>0.0537324989842733</v>
+        <v>0.0537334647717601</v>
       </c>
       <c r="N5">
-        <v>6.247787224830439E-05</v>
+        <v>6.247674929173577E-05</v>
       </c>
       <c r="O5">
-        <v>0.05373249898427331</v>
+        <v>0.05373346477176014</v>
       </c>
       <c r="P5">
-        <v>0.1177692088617298</v>
+        <v>0.1178764574858024</v>
       </c>
       <c r="Q5">
-        <v>0.351915686432471</v>
+        <v>0.3515954997390087</v>
       </c>
       <c r="R5">
-        <v>0.6603013981352774</v>
+        <v>0.658766660200202</v>
       </c>
       <c r="S5">
-        <v>0.7360598465580505</v>
+        <v>0.737774655514313</v>
       </c>
       <c r="T5">
-        <v>0.07758103441962745</v>
+        <v>0.0777645522130935</v>
       </c>
       <c r="U5">
-        <v>0.8678448081896788</v>
+        <v>0.865796767536998</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -782,64 +782,64 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>-3.091608670206303</v>
+        <v>-2.83783483662059</v>
       </c>
       <c r="C6">
         <v>0.001081707171299936</v>
       </c>
       <c r="D6">
-        <v>0.009843328934542412</v>
+        <v>0.00984033423126101</v>
       </c>
       <c r="E6">
-        <v>0.7049935348746449</v>
+        <v>0.7052080851533894</v>
       </c>
       <c r="F6">
-        <v>0.007124936126841198</v>
+        <v>0.007125167324114313</v>
       </c>
       <c r="G6">
-        <v>0.004673486123707837</v>
+        <v>0.00467333447853256</v>
       </c>
       <c r="H6">
-        <v>3.013228382257155</v>
+        <v>3.013375910182456</v>
       </c>
       <c r="I6">
-        <v>0.008652340471771606</v>
+        <v>0.008651916873164314</v>
       </c>
       <c r="J6">
-        <v>2.305028690427206</v>
+        <v>2.306427247799311</v>
       </c>
       <c r="K6">
-        <v>0.7648276127305103</v>
+        <v>0.7643638411993706</v>
       </c>
       <c r="L6">
-        <v>0.007544374042389103</v>
+        <v>0.00754629454455299</v>
       </c>
       <c r="M6">
-        <v>0.1085061757637551</v>
+        <v>0.1084785613704765</v>
       </c>
       <c r="N6">
-        <v>5.47165602395479E-05</v>
+        <v>5.473048893286955E-05</v>
       </c>
       <c r="O6">
-        <v>0.1085061757637557</v>
+        <v>0.1084785613704772</v>
       </c>
       <c r="P6">
-        <v>1.452757386502534</v>
+        <v>1.452350418912761</v>
       </c>
       <c r="Q6">
-        <v>0.2613217553065102</v>
+        <v>0.2613949810814523</v>
       </c>
       <c r="R6">
-        <v>0.1963091363687686</v>
+        <v>0.1962177335746677</v>
       </c>
       <c r="S6">
-        <v>0.4124238931995091</v>
+        <v>0.412616009862492</v>
       </c>
       <c r="T6">
-        <v>0.2850870640116897</v>
+        <v>0.284845723055681</v>
       </c>
       <c r="U6">
-        <v>0.2889440376307653</v>
+        <v>0.2891888509617387</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -847,64 +847,64 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>142.5586072773062</v>
+        <v>142.8390470752903</v>
       </c>
       <c r="C7">
-        <v>0.0007313977981660236</v>
+        <v>0.0007313977981660237</v>
       </c>
       <c r="D7">
-        <v>0.0100293041222378</v>
+        <v>0.01002148928511957</v>
       </c>
       <c r="E7">
-        <v>0.1743348999130466</v>
+        <v>0.1744708476557504</v>
       </c>
       <c r="F7">
-        <v>0.00712473693439171</v>
+        <v>0.007124796891890489</v>
       </c>
       <c r="G7">
-        <v>0.003516990769853971</v>
+        <v>0.003516961173225044</v>
       </c>
       <c r="H7">
-        <v>1.570080554681679</v>
+        <v>1.570116113042322</v>
       </c>
       <c r="I7">
-        <v>0.004275030421858372</v>
+        <v>0.004274933605404968</v>
       </c>
       <c r="J7">
-        <v>1.355151604392902</v>
+        <v>1.355051442669003</v>
       </c>
       <c r="K7">
-        <v>0.165009823763185</v>
+        <v>0.1650220208413829</v>
       </c>
       <c r="L7">
-        <v>0.008646621468551323</v>
+        <v>0.008648743772617337</v>
       </c>
       <c r="M7">
-        <v>0.06401402899663337</v>
+        <v>0.06399832067672087</v>
       </c>
       <c r="N7">
-        <v>6.271075397300079E-05</v>
+        <v>6.272614626103189E-05</v>
       </c>
       <c r="O7">
-        <v>0.06401402899663323</v>
+        <v>0.06399832067672073</v>
       </c>
       <c r="P7">
-        <v>0.001055402938441935</v>
+        <v>0.001043204509746773</v>
       </c>
       <c r="Q7">
-        <v>3.273474211152704</v>
+        <v>3.311751693062642</v>
       </c>
       <c r="R7">
-        <v>0.6248786962936835</v>
+        <v>0.6229213756483666</v>
       </c>
       <c r="S7">
-        <v>0.6257214377682067</v>
+        <v>0.6276875566657744</v>
       </c>
       <c r="T7">
-        <v>0.0006615292699765191</v>
+        <v>0.000655474522779697</v>
       </c>
       <c r="U7">
-        <v>3.308968022226483</v>
+        <v>3.339533611216863</v>
       </c>
     </row>
   </sheetData>
